--- a/Katalon Projects/Test Scenarios/COOLMATE-005.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaoNguyen\OneDrive\Máy tính\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF9D59-6DC8-44E2-A3DD-65535628CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7EEAA-B3A7-434E-A839-D5984788B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -92,7 +70,34 @@
     <t>TS001-Address Book</t>
   </si>
   <si>
-    <t>add (2 address), update, delete</t>
+    <t>TC001-Add new address and set default</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>A new address is created and set as default in the address book</t>
+  </si>
+  <si>
+    <t>Add a new address to the address book with all valid information and set it as default</t>
+  </si>
+  <si>
+    <t>Update a address with all valid information in the address book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The address is updated with valid information </t>
+  </si>
+  <si>
+    <t>TC002-Update address</t>
+  </si>
+  <si>
+    <t>Delete an address in the address book</t>
+  </si>
+  <si>
+    <t>The address is deleted</t>
+  </si>
+  <si>
+    <t>TC-003-Delete address</t>
   </si>
 </sst>
 </file>
@@ -149,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -205,40 +210,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,42 +609,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" cm="1">
-        <f t="array" aca="1" ref="A2" ca="1">A2:H21</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Katalon Projects/Test Scenarios/COOLMATE-005.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-005.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaoNguyen\OneDrive\Máy tính\Draft Repo On Github\Draft\Katalon Projects\Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7EEAA-B3A7-434E-A839-D5984788B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB289F3-4A25-46D5-A7E1-2E0B2832C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -97,7 +87,7 @@
     <t>The address is deleted</t>
   </si>
   <si>
-    <t>TC-003-Delete address</t>
+    <t>TC003-Delete address</t>
   </si>
 </sst>
 </file>
@@ -567,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
